--- a/forwardprimer-v3_08.xlsx
+++ b/forwardprimer-v3_08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_08" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0673-TTGCTGTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTGTTCCTCGTCGGCAGCGTC</t>
+    <t>F0673-GACTAGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTAGAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0674-GTACCACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACCACTACTCGTCGGCAGCGTC</t>
+    <t>F0674-TCTGGATCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGGATCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F0675-GATGGTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGGTGTTCTCGTCGGCAGCGTC</t>
+    <t>F0675-TCTCACAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCACAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F0676-AACTCAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCAGCATTCGTCGGCAGCGTC</t>
+    <t>F0676-GAACTGTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F0677-TCTTGTCCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGTCCTTTCGTCGGCAGCGTC</t>
+    <t>F0677-AGTGAGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAGACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F0678-AGACTTCCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTTCCTTTCGTCGGCAGCGTC</t>
+    <t>F0678-GTAGTGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTGAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F0679-AACCTGTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGTTCGTCGTCGGCAGCGTC</t>
+    <t>F0679-TCTGCACTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCACTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F0680-TCGTCGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCGATGATCGTCGGCAGCGTC</t>
+    <t>F0680-TGAGGATGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGATGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F0681-TGTTCTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCTGTGATCGTCGGCAGCGTC</t>
+    <t>F0681-AGGATGACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGATGACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F0682-AGTAGACGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGACGTGTCGTCGGCAGCGTC</t>
+    <t>F0682-ACAGCTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGCTCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F0683-AGGATGTTGT</t>
+    <t>F0683-TGTTGGTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGGTAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>F0684-TACGACTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGACTAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>F0685-ACATGGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGGAGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F0686-TAGACAACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACAACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F0687-ATGATCAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGATCAGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F0688-ATGAACGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAACGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F0689-CAAGTGACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTGACGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F0690-AGTACAAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACAAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F0691-ACACAGTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAGTGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F0692-ACGTGACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTGACGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F0693-AAGTACGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTACGAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F0694-AGGTACCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTACCTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F0695-ACAACGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACGAAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F0696-AGCATGCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCATGCTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F0697-CACAGAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACAGAGTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F0698-CAAGACTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACTAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F0699-AGTTCGTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCGTGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F0700-TCACTTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTTCAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F0701-TCTGCTGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCTGTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F0702-AACAAGACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F0703-ACTGACTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGACTCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F0704-AACATCCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACATCCTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F0705-GATCACGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCACGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F0706-CTGTTCTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTTCTAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F0707-ACTAGAGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGAGACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F0708-GCTCTGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCTGAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F0709-TAGACACCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACACCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F0710-AACGTAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTAGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F0711-AACCACGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCACGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F0712-AGGATGTTGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACAGGATGTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>F0684-GTGCAACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGCAACAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>F0685-TGTTCCAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCCAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F0686-TCTCTACCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTACCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F0687-TCACAGAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACAGAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F0688-TACCTAGGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTAGGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F0689-TCCAAGCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAAGCTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F0690-CATGGTGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGGTGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F0691-TCCTAGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTAGTCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F0692-ATGACACACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGACACACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F0693-ACCATCGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCATCGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F0694-ACACTCTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTCTCGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F0695-GTTCGTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGTCGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F0696-ATCGATGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGATGGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F0697-CTTGAGAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAGAACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F0698-GAGTTGCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTGCATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F0699-TACATGGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACATGGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F0700-ACTAGGTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGTCGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F0701-CGTCAACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCAACAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F0702-AACCTGCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGCATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F0703-AGATGTTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGTTGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F0704-TAGGAGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAGAAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F0705-ACAGAGAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGAGAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F0706-TGTCGTGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCGTGTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F0707-CTACACTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACACTGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F0708-TGAACTCCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACTCCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F0709-AGAGACAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACAGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F0710-ATGAGGACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGGACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F0711-CTCCTCAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCCTCAAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F0712-TACGTGGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTGGTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F0713-TCTTCTAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCTAGACTCGTCGGCAGCGTC</t>
+    <t>F0713-ACGAGTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAGTCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F0714-GACTCGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTCGACTATCGTCGGCAGCGTC</t>
+    <t>F0714-TGTAGAGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGAGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F0715-ACGAGAGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAGAGTTCTCGTCGGCAGCGTC</t>
+    <t>F0715-GTTGCATCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCATCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F0716-TCTGTGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTGAACGTCGTCGGCAGCGTC</t>
+    <t>F0716-TGCTAGCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F0717-TAGAGATCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGATCCATCGTCGGCAGCGTC</t>
+    <t>F0717-GACTGCTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTGCTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F0718-ATGAAGTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAAGTGCTTCGTCGGCAGCGTC</t>
+    <t>F0718-CAGGATGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGGATGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F0719-AGAACCATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACCATGGTCGTCGGCAGCGTC</t>
+    <t>F0719-TCACCATCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACCATCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F0720-GCATCGTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCGTCAATCGTCGGCAGCGTC</t>
+    <t>F0720-CGTGTAGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTAGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F0721-GAACGAAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGAAGGTTCGTCGGCAGCGTC</t>
+    <t>F0721-CGTGATGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGATGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F0722-TGTGAGGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAGGTAGTCGTCGGCAGCGTC</t>
+    <t>F0722-TAGCAAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAAGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F0723-GGATGTCGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATGTCGATTCGTCGGCAGCGTC</t>
+    <t>F0723-GAACCACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F0724-ACTCAGTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCAGTCGTTCGTCGGCAGCGTC</t>
+    <t>F0724-TCAACTGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F0725-AGTGTACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTACGTATCGTCGGCAGCGTC</t>
+    <t>F0725-GTCAGTACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGTACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F0726-AGACAGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACAGAAGCTCGTCGGCAGCGTC</t>
+    <t>F0726-TGATGACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F0727-GATGGTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGGTCAAGTCGTCGGCAGCGTC</t>
+    <t>F0727-GACTCCTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTCCTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F0728-TGTTGTACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGTACAGTCGTCGGCAGCGTC</t>
+    <t>F0728-GAACGTACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F0729-ATGCTAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTAGGAATCGTCGGCAGCGTC</t>
+    <t>F0729-GCTCAAGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCAAGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F0730-TCACCATCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACCATCCTTCGTCGGCAGCGTC</t>
+    <t>F0730-TTCCTGCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTGCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F0731-GTGAACATGT</t>
+    <t>F0731-TCTTGGATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGGATGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F0732-CTCTCACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCACTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F0733-TGATGCTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGCTCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F0734-CTCCTCTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCCTCTCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F0735-TTCCAACGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAACGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F0736-AACATCAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACATCAGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F0737-AGATCCAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCCAACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F0738-GAAGAACAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAACAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F0739-TGTGAGCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAGCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F0740-GTCGATCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGATCTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F0741-GTACACAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACACAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F0742-GTAGCTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTCAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F0743-GTCGTCAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGTCAGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F0744-GAGTTCTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTCTCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F0745-AACTCAGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCAGAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F0746-CATGAAGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGAAGTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F0747-TGCTCTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCTCCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F0748-ACCTCTGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTCTGATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F0749-GGAACCAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAACCAAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F0750-TACACTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACTGGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F0751-ATCTGGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGGATCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F0752-ATGACTGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGACTGTGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F0753-GCTTGAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGAGTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F0754-CTGACTAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGACTAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F0755-CTTGACGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGACGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F0756-GTGTCTACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCTACTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F0757-TTCTACGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTACGTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F0758-ACTGTGTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTGTCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F0759-GTGAACATGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGTGAACATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F0732-AGAACTACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F0733-TACTTCCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTTCCTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F0734-CACTGACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTGACGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F0735-CCTCTCACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTCACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F0736-ATCCATCACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCATCACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F0737-TCTGAGTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAGTAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F0738-GAAGACACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F0739-TTGGTCGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTCGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F0740-AGTTGTCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGTCCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F0741-AGATCTTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCTTGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F0742-ATGGATCTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGATCTCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F0743-ATGCTGTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTGTCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F0744-TCTTGAGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGAGAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F0745-AGTCTTGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTTGAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F0746-TTCCAGTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAGTAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F0747-CAAGTGCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTGCTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F0748-AACTCAAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCAAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F0749-AGGTCTGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCTGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F0750-CAGGATGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGGATGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F0751-TCCAGTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGTACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F0752-GTAGAACACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAACACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F0753-GTAGATCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGATCTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F0754-AACAAGTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGTAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F0755-AACCAGCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAGCTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F0756-TGAAGCTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGCTGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F0757-AGCTCGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCGAACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F0758-AGTTGTGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGTGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F0759-CTCAGTCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGTCCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F0760-TGTCTCGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCGAGATCGTCGGCAGCGTC</t>
+    <t>F0760-AGCTTCCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTCCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F0761-GATCACAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCACAGCATCGTCGGCAGCGTC</t>
+    <t>F0761-ACTGCATGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGCATGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F0762-ACTTCTCAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTCTCAGCTCGTCGGCAGCGTC</t>
+    <t>F0762-AAGTGTTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGTTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F0763-GATGAGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGAGACTATCGTCGGCAGCGTC</t>
+    <t>F0763-GCTGACTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGACTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F0764-TACAGTCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGTCTAGTCGTCGGCAGCGTC</t>
+    <t>F0764-GGTGAGAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGAGAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F0765-TCTTCATCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCATCGATCGTCGGCAGCGTC</t>
+    <t>F0765-GGACTGAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACTGAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F0766-TGTCAGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAGTACCTCGTCGGCAGCGTC</t>
+    <t>F0766-CAACGTGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACGTGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F0767-AGAAGTCCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGTCCACTCGTCGGCAGCGTC</t>
+    <t>F0767-ACCAACTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAACTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F0768-AAGTCTCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCTCCAATCGTCGGCAGCGTC</t>
+    <t>F0768-GTGAGTTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGTTCTGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
